--- a/medicine/Psychotrope/Brasserie_Kops/Brasserie_Kops.xlsx
+++ b/medicine/Psychotrope/Brasserie_Kops/Brasserie_Kops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie Kops (en anglais Kops Brewery), fondée par Henry Lowenfeld en 1890, est une brasserie historique située dans le quartier de Fulham à Londres. Elle a été le premier brasseur de bière sans alcool au Royaume-Uni[1].  
-En décembre 2014, le bâtiment rénové a reçu une plaque bleue du Hammersmith &amp; Fulham Historic Buildings Group, avec l'inscription : Kops a brassé des bières et des stouts non alcoolisées sur un site de huit acres et a exporté ses produits dans tout l'Empire britannique[2]. 
-Le bâtiment a été utilisé après la Seconde Guerre mondiale par la société d'emballage alimentaire Convoys[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie Kops (en anglais Kops Brewery), fondée par Henry Lowenfeld en 1890, est une brasserie historique située dans le quartier de Fulham à Londres. Elle a été le premier brasseur de bière sans alcool au Royaume-Uni.  
+En décembre 2014, le bâtiment rénové a reçu une plaque bleue du Hammersmith &amp; Fulham Historic Buildings Group, avec l'inscription : Kops a brassé des bières et des stouts non alcoolisées sur un site de huit acres et a exporté ses produits dans tout l'Empire britannique. 
+Le bâtiment a été utilisé après la Seconde Guerre mondiale par la société d'emballage alimentaire Convoys. 
 </t>
         </is>
       </c>
